--- a/Analysis/Data.xlsx
+++ b/Analysis/Data.xlsx
@@ -1127,11 +1127,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39360364"/>
-        <c:axId val="33602987"/>
+        <c:axId val="12942314"/>
+        <c:axId val="76428636"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39360364"/>
+        <c:axId val="12942314"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -1172,11 +1172,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="33602987"/>
+        <c:crossAx val="76428636"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33602987"/>
+        <c:axId val="76428636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1227,7 +1227,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="39360364"/>
+        <c:crossAx val="12942314"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1257,15 +1257,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>538200</xdr:colOff>
+      <xdr:colOff>565200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>184680</xdr:colOff>
+      <xdr:colOff>211320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1273,8 +1273,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4233600" y="977760"/>
-        <a:ext cx="5190120" cy="3099600"/>
+        <a:off x="4260600" y="968760"/>
+        <a:ext cx="5189760" cy="3099240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1295,9 +1295,9 @@
   <dimension ref="A1:AN131"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="AF1" activeCellId="0" sqref="AF1"/>
-      <selection pane="bottomLeft" activeCell="AL48" activeCellId="0" sqref="AL48"/>
+      <selection pane="bottomLeft" activeCell="AK108" activeCellId="0" sqref="AK108:AK113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11231,7 +11231,7 @@
         <v>17</v>
       </c>
       <c r="AK85" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL85" s="0" t="n">
         <v>3</v>
@@ -11347,7 +11347,7 @@
         <v>15</v>
       </c>
       <c r="AK86" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL86" s="0" t="n">
         <v>4</v>
@@ -11463,7 +11463,7 @@
         <v>20</v>
       </c>
       <c r="AK87" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL87" s="0" t="n">
         <v>3</v>
@@ -11579,7 +11579,7 @@
         <v>18</v>
       </c>
       <c r="AK88" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL88" s="0" t="n">
         <v>2</v>
@@ -11695,7 +11695,7 @@
         <v>17</v>
       </c>
       <c r="AK89" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AL89" s="0" t="n">
         <v>2</v>
@@ -11811,7 +11811,7 @@
         <v>11</v>
       </c>
       <c r="AK90" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL90" s="0" t="n">
         <v>2</v>
@@ -11927,7 +11927,7 @@
         <v>20</v>
       </c>
       <c r="AK91" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL91" s="0" t="n">
         <v>3</v>
@@ -12043,7 +12043,7 @@
         <v>15</v>
       </c>
       <c r="AK92" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL92" s="0" t="n">
         <v>3</v>
@@ -12159,7 +12159,7 @@
         <v>15</v>
       </c>
       <c r="AK93" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL93" s="0" t="n">
         <v>4</v>
@@ -12275,7 +12275,7 @@
         <v>15</v>
       </c>
       <c r="AK94" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL94" s="0" t="n">
         <v>3</v>
@@ -12391,7 +12391,7 @@
         <v>12</v>
       </c>
       <c r="AK95" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL95" s="0" t="n">
         <v>3</v>
@@ -12507,7 +12507,7 @@
         <v>10</v>
       </c>
       <c r="AK96" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL96" s="0" t="n">
         <v>4</v>
@@ -12623,7 +12623,7 @@
         <v>11</v>
       </c>
       <c r="AK97" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL97" s="0" t="n">
         <v>5</v>
@@ -12739,7 +12739,7 @@
         <v>21</v>
       </c>
       <c r="AK98" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL98" s="0" t="n">
         <v>2</v>
@@ -12855,7 +12855,7 @@
         <v>12</v>
       </c>
       <c r="AK99" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL99" s="0" t="n">
         <v>1</v>
@@ -12971,7 +12971,7 @@
         <v>15</v>
       </c>
       <c r="AK100" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL100" s="0" t="n">
         <v>3</v>
@@ -13087,7 +13087,7 @@
         <v>22</v>
       </c>
       <c r="AK101" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL101" s="0" t="n">
         <v>2</v>
@@ -13203,7 +13203,7 @@
         <v>18</v>
       </c>
       <c r="AK102" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL102" s="0" t="n">
         <v>3</v>
@@ -13319,7 +13319,7 @@
         <v>18</v>
       </c>
       <c r="AK103" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL103" s="0" t="n">
         <v>1</v>
@@ -13435,7 +13435,7 @@
         <v>18</v>
       </c>
       <c r="AK104" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL104" s="0" t="n">
         <v>2</v>
@@ -13551,7 +13551,7 @@
         <v>19</v>
       </c>
       <c r="AK105" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL105" s="0" t="n">
         <v>2</v>
@@ -13667,7 +13667,7 @@
         <v>14</v>
       </c>
       <c r="AK106" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL106" s="0" t="n">
         <v>3</v>
@@ -13783,7 +13783,7 @@
         <v>16</v>
       </c>
       <c r="AK107" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL107" s="0" t="n">
         <v>2</v>
@@ -13899,7 +13899,7 @@
         <v>15</v>
       </c>
       <c r="AK108" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AL108" s="0" t="n">
         <v>2</v>
@@ -14015,7 +14015,7 @@
         <v>12</v>
       </c>
       <c r="AK109" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AL109" s="0" t="n">
         <v>4</v>
@@ -14131,7 +14131,7 @@
         <v>20</v>
       </c>
       <c r="AK110" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AL110" s="0" t="n">
         <v>3</v>
@@ -14247,7 +14247,7 @@
         <v>18</v>
       </c>
       <c r="AK111" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AL111" s="0" t="n">
         <v>6</v>
@@ -14363,7 +14363,7 @@
         <v>13</v>
       </c>
       <c r="AK112" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AL112" s="0" t="n">
         <v>3</v>
@@ -14479,7 +14479,7 @@
         <v>19</v>
       </c>
       <c r="AK113" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AL113" s="0" t="n">
         <v>1</v>
@@ -14595,7 +14595,7 @@
         <v>15</v>
       </c>
       <c r="AK114" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL114" s="0" t="n">
         <v>1</v>
@@ -14711,7 +14711,7 @@
         <v>13</v>
       </c>
       <c r="AK115" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL115" s="0" t="n">
         <v>1</v>
@@ -16592,7 +16592,7 @@
   <dimension ref="A1:AP60"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="AK108:AK113 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22423,7 +22423,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="K2" activeCellId="1" sqref="AK108:AK113 K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22485,7 +22485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
         <v>47</v>
       </c>
@@ -22545,7 +22545,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
+      <selection pane="topLeft" activeCell="S12" activeCellId="1" sqref="AK108:AK113 S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23580,7 +23580,7 @@
   <dimension ref="C2:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="AK108:AK113 F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
